--- a/docs/planilha_calculo.xlsx
+++ b/docs/planilha_calculo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545"/>
   </bookViews>
   <sheets>
     <sheet name="Capa" sheetId="6" r:id="rId1"/>
@@ -598,18 +598,6 @@
     </r>
   </si>
   <si>
-    <t>Planilha de custos do negócio</t>
-  </si>
-  <si>
-    <t>Muitos empreendedores não possuem ferramentas que auxiliem na gestão do negócio, e quando não tem ideia da direção que estão indo, fica difícil apontar os erros e sugerir melhorias.</t>
-  </si>
-  <si>
-    <t>O objetivo desta planilha é auxiliar o empreendedor a estimar custos, compará-los com a receita e consequentemente identificar se o negócio é viável ou não.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intruções </t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -821,6 +809,18 @@
   </si>
   <si>
     <t>Para optantes pelo Simples Nacional, descontar os 20% de INSS mostrados na calculadora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Instruções </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Muitos empreendedores não possuem ferramentas que auxiliem na gestão do negócio, e quando não tem ideia da direção que estão indo, fica difícil apontar os erros e sugerir melhorias.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     O objetivo desta planilha é auxiliar o empreendedor a estimar custos, compará-los com a receita e consequentemente identificar se o negócio é viável ou não.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Planilha de custos do negócio</t>
   </si>
 </sst>
 </file>
@@ -831,7 +831,7 @@
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -931,15 +931,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <u/>
       <sz val="16"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="26"/>
+      <color rgb="FF2F4177"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -984,12 +999,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -997,6 +1006,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF2F4177"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1249,7 +1270,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="145">
+  <cellXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -1327,23 +1348,23 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1389,7 +1410,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1405,14 +1426,14 @@
     <xf numFmtId="164" fontId="5" fillId="7" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="10" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="2" fillId="9" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1423,34 +1444,19 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1477,7 +1483,7 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1507,31 +1513,39 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="3" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1542,15 +1556,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="3" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1563,6 +1568,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF2F4177"/>
+      <color rgb="FFEC971E"/>
       <color rgb="FF124E19"/>
     </mruColors>
   </colors>
@@ -1570,8 +1577,165 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Imagem 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A286747E-242F-4A6F-BE85-005703E718C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect b="73550"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="12763500" cy="904875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>313619</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Gráfico 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4EE8C9A5-0753-4CA3-8D88-119C6267A6CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId3"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4219575" y="561975"/>
+          <a:ext cx="3590925" cy="265994"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>350518</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Imagem 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8604DBC9-154E-452A-B343-F8D0B470BC64}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="857250" y="104776"/>
+          <a:ext cx="2066925" cy="245742"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1861,38 +2025,69 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:S16"/>
+  <dimension ref="A1:V15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="B4" sqref="B4:S4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.85546875" customWidth="1"/>
+    <col min="2" max="2" width="4.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="130" t="s">
-        <v>66</v>
-      </c>
-      <c r="C2" s="131"/>
-      <c r="D2" s="131"/>
-      <c r="E2" s="131"/>
-      <c r="F2" s="131"/>
-      <c r="G2" s="131"/>
-      <c r="H2" s="131"/>
-      <c r="I2" s="131"/>
-      <c r="J2" s="131"/>
-      <c r="K2" s="131"/>
-      <c r="L2" s="131"/>
-      <c r="M2" s="131"/>
-      <c r="N2" s="131"/>
-      <c r="O2" s="131"/>
-      <c r="P2" s="131"/>
-      <c r="Q2" s="131"/>
-      <c r="R2" s="131"/>
-      <c r="S2" s="132"/>
-    </row>
-    <row r="3" spans="2:19" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="128"/>
+      <c r="B1" s="128"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="128"/>
+      <c r="E1" s="128"/>
+      <c r="F1" s="128"/>
+      <c r="G1" s="128"/>
+      <c r="H1" s="128"/>
+      <c r="I1" s="128"/>
+      <c r="J1" s="128"/>
+      <c r="K1" s="128"/>
+      <c r="L1" s="128"/>
+      <c r="M1" s="128"/>
+      <c r="N1" s="128"/>
+      <c r="O1" s="128"/>
+      <c r="P1" s="128"/>
+      <c r="Q1" s="128"/>
+      <c r="R1" s="128"/>
+      <c r="S1" s="128"/>
+      <c r="T1" s="128"/>
+      <c r="U1" s="128"/>
+      <c r="V1" s="123"/>
+    </row>
+    <row r="2" spans="1:22" ht="27.75" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="128"/>
+      <c r="B2" s="129" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="129"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="129"/>
+      <c r="F2" s="129"/>
+      <c r="G2" s="129"/>
+      <c r="H2" s="129"/>
+      <c r="I2" s="129"/>
+      <c r="J2" s="129"/>
+      <c r="K2" s="129"/>
+      <c r="L2" s="129"/>
+      <c r="M2" s="129"/>
+      <c r="N2" s="129"/>
+      <c r="O2" s="129"/>
+      <c r="P2" s="129"/>
+      <c r="Q2" s="129"/>
+      <c r="R2" s="129"/>
+      <c r="S2" s="129"/>
+      <c r="T2" s="128"/>
+      <c r="U2" s="128"/>
+      <c r="V2" s="123"/>
+    </row>
+    <row r="3" spans="1:22" ht="6.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B3" s="98"/>
       <c r="C3" s="98"/>
       <c r="D3" s="98"/>
@@ -1912,249 +2107,254 @@
       <c r="R3" s="98"/>
       <c r="S3" s="98"/>
     </row>
-    <row r="4" spans="2:19" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="133" t="s">
+    <row r="4" spans="1:22" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="130" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" s="130"/>
+      <c r="D4" s="130"/>
+      <c r="E4" s="130"/>
+      <c r="F4" s="130"/>
+      <c r="G4" s="130"/>
+      <c r="H4" s="130"/>
+      <c r="I4" s="130"/>
+      <c r="J4" s="130"/>
+      <c r="K4" s="130"/>
+      <c r="L4" s="130"/>
+      <c r="M4" s="130"/>
+      <c r="N4" s="130"/>
+      <c r="O4" s="130"/>
+      <c r="P4" s="130"/>
+      <c r="Q4" s="130"/>
+      <c r="R4" s="130"/>
+      <c r="S4" s="130"/>
+    </row>
+    <row r="5" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="120" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="121"/>
+      <c r="D5" s="121"/>
+      <c r="E5" s="121"/>
+      <c r="F5" s="121"/>
+      <c r="G5" s="121"/>
+      <c r="H5" s="121"/>
+      <c r="I5" s="121"/>
+      <c r="J5" s="121"/>
+      <c r="K5" s="121"/>
+      <c r="L5" s="121"/>
+      <c r="M5" s="121"/>
+      <c r="N5" s="121"/>
+      <c r="O5" s="121"/>
+      <c r="P5" s="121"/>
+      <c r="Q5" s="121"/>
+      <c r="R5" s="121"/>
+      <c r="S5" s="121"/>
+    </row>
+    <row r="6" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="1"/>
+    </row>
+    <row r="7" spans="1:22" ht="21" x14ac:dyDescent="0.35">
+      <c r="A7" s="123"/>
+      <c r="B7" s="125" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" s="124"/>
+      <c r="D7" s="124"/>
+      <c r="E7" s="124"/>
+      <c r="F7" s="124"/>
+      <c r="G7" s="124"/>
+      <c r="H7" s="124"/>
+      <c r="I7" s="124"/>
+      <c r="J7" s="124"/>
+      <c r="K7" s="124"/>
+      <c r="L7" s="124"/>
+      <c r="M7" s="124"/>
+      <c r="N7" s="124"/>
+      <c r="O7" s="124"/>
+      <c r="P7" s="124"/>
+      <c r="Q7" s="124"/>
+      <c r="R7" s="124"/>
+      <c r="S7" s="124"/>
+      <c r="T7" s="123"/>
+      <c r="U7" s="123"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B8" s="122" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" s="122"/>
+      <c r="D8" s="122"/>
+      <c r="E8" s="122"/>
+      <c r="F8" s="122"/>
+      <c r="G8" s="122"/>
+      <c r="H8" s="122"/>
+      <c r="I8" s="122"/>
+      <c r="J8" s="122"/>
+      <c r="K8" s="122"/>
+      <c r="L8" s="122"/>
+      <c r="M8" s="122"/>
+      <c r="N8" s="122"/>
+      <c r="O8" s="122"/>
+      <c r="P8" s="122"/>
+      <c r="Q8" s="122"/>
+      <c r="R8" s="122"/>
+      <c r="S8" s="122"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B9" s="122" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="134"/>
-      <c r="D4" s="134"/>
-      <c r="E4" s="134"/>
-      <c r="F4" s="134"/>
-      <c r="G4" s="134"/>
-      <c r="H4" s="134"/>
-      <c r="I4" s="134"/>
-      <c r="J4" s="134"/>
-      <c r="K4" s="134"/>
-      <c r="L4" s="134"/>
-      <c r="M4" s="134"/>
-      <c r="N4" s="134"/>
-      <c r="O4" s="134"/>
-      <c r="P4" s="134"/>
-      <c r="Q4" s="134"/>
-      <c r="R4" s="134"/>
-      <c r="S4" s="135"/>
-    </row>
-    <row r="5" spans="2:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="100" t="s">
-        <v>68</v>
-      </c>
-      <c r="C5" s="101"/>
-      <c r="D5" s="101"/>
-      <c r="E5" s="101"/>
-      <c r="F5" s="101"/>
-      <c r="G5" s="101"/>
-      <c r="H5" s="101"/>
-      <c r="I5" s="101"/>
-      <c r="J5" s="101"/>
-      <c r="K5" s="101"/>
-      <c r="L5" s="101"/>
-      <c r="M5" s="101"/>
-      <c r="N5" s="101"/>
-      <c r="O5" s="101"/>
-      <c r="P5" s="101"/>
-      <c r="Q5" s="101"/>
-      <c r="R5" s="101"/>
-      <c r="S5" s="102"/>
-    </row>
-    <row r="6" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="1"/>
-    </row>
-    <row r="7" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="2:19" ht="21" x14ac:dyDescent="0.35">
-      <c r="B8" s="111" t="s">
-        <v>78</v>
-      </c>
-      <c r="C8" s="103"/>
-      <c r="D8" s="103"/>
-      <c r="E8" s="103"/>
-      <c r="F8" s="103"/>
-      <c r="G8" s="103"/>
-      <c r="H8" s="103"/>
-      <c r="I8" s="103"/>
-      <c r="J8" s="103"/>
-      <c r="K8" s="103"/>
-      <c r="L8" s="103"/>
-      <c r="M8" s="103"/>
-      <c r="N8" s="103"/>
-      <c r="O8" s="103"/>
-      <c r="P8" s="103"/>
-      <c r="Q8" s="103"/>
-      <c r="R8" s="103"/>
-      <c r="S8" s="104"/>
-    </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B9" s="105" t="s">
-        <v>82</v>
-      </c>
-      <c r="C9" s="106"/>
-      <c r="D9" s="106"/>
-      <c r="E9" s="106"/>
-      <c r="F9" s="106"/>
-      <c r="G9" s="106"/>
-      <c r="H9" s="106"/>
-      <c r="I9" s="106"/>
-      <c r="J9" s="106"/>
-      <c r="K9" s="106"/>
-      <c r="L9" s="106"/>
-      <c r="M9" s="106"/>
-      <c r="N9" s="106"/>
-      <c r="O9" s="106"/>
-      <c r="P9" s="106"/>
-      <c r="Q9" s="106"/>
-      <c r="R9" s="106"/>
-      <c r="S9" s="107"/>
-    </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B10" s="105" t="s">
+      <c r="C9" s="122"/>
+      <c r="D9" s="122"/>
+      <c r="E9" s="122"/>
+      <c r="F9" s="122"/>
+      <c r="G9" s="122"/>
+      <c r="H9" s="122"/>
+      <c r="I9" s="122"/>
+      <c r="J9" s="122"/>
+      <c r="K9" s="122"/>
+      <c r="L9" s="122"/>
+      <c r="M9" s="122"/>
+      <c r="N9" s="122"/>
+      <c r="O9" s="122"/>
+      <c r="P9" s="122"/>
+      <c r="Q9" s="122"/>
+      <c r="R9" s="122"/>
+      <c r="S9" s="122"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B10" s="122"/>
+      <c r="C10" s="122"/>
+      <c r="D10" s="122"/>
+      <c r="E10" s="122"/>
+      <c r="F10" s="122"/>
+      <c r="G10" s="122"/>
+      <c r="H10" s="122"/>
+      <c r="I10" s="122"/>
+      <c r="J10" s="122"/>
+      <c r="K10" s="122"/>
+      <c r="L10" s="122"/>
+      <c r="M10" s="122"/>
+      <c r="N10" s="122"/>
+      <c r="O10" s="122"/>
+      <c r="P10" s="122"/>
+      <c r="Q10" s="122"/>
+      <c r="R10" s="122"/>
+      <c r="S10" s="122"/>
+    </row>
+    <row r="11" spans="1:22" ht="21" x14ac:dyDescent="0.35">
+      <c r="A11" s="126"/>
+      <c r="B11" s="125" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="127"/>
+      <c r="D11" s="127"/>
+      <c r="E11" s="127"/>
+      <c r="F11" s="127"/>
+      <c r="G11" s="127"/>
+      <c r="H11" s="127"/>
+      <c r="I11" s="127"/>
+      <c r="J11" s="127"/>
+      <c r="K11" s="127"/>
+      <c r="L11" s="127"/>
+      <c r="M11" s="127"/>
+      <c r="N11" s="127"/>
+      <c r="O11" s="127"/>
+      <c r="P11" s="127"/>
+      <c r="Q11" s="127"/>
+      <c r="R11" s="127"/>
+      <c r="S11" s="127"/>
+      <c r="T11" s="123"/>
+      <c r="U11" s="123"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B12" s="122" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" s="122"/>
+      <c r="D12" s="122"/>
+      <c r="E12" s="122"/>
+      <c r="F12" s="122"/>
+      <c r="G12" s="122"/>
+      <c r="H12" s="122"/>
+      <c r="I12" s="122"/>
+      <c r="J12" s="122"/>
+      <c r="K12" s="122"/>
+      <c r="L12" s="122"/>
+      <c r="M12" s="122"/>
+      <c r="N12" s="122"/>
+      <c r="O12" s="122"/>
+      <c r="P12" s="122"/>
+      <c r="Q12" s="122"/>
+      <c r="R12" s="122"/>
+      <c r="S12" s="122"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B13" s="122" t="s">
         <v>71</v>
       </c>
-      <c r="C10" s="106"/>
-      <c r="D10" s="106"/>
-      <c r="E10" s="106"/>
-      <c r="F10" s="106"/>
-      <c r="G10" s="106"/>
-      <c r="H10" s="106"/>
-      <c r="I10" s="106"/>
-      <c r="J10" s="106"/>
-      <c r="K10" s="106"/>
-      <c r="L10" s="106"/>
-      <c r="M10" s="106"/>
-      <c r="N10" s="106"/>
-      <c r="O10" s="106"/>
-      <c r="P10" s="106"/>
-      <c r="Q10" s="106"/>
-      <c r="R10" s="106"/>
-      <c r="S10" s="107"/>
-    </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B11" s="105"/>
-      <c r="C11" s="106"/>
-      <c r="D11" s="106"/>
-      <c r="E11" s="106"/>
-      <c r="F11" s="106"/>
-      <c r="G11" s="106"/>
-      <c r="H11" s="106"/>
-      <c r="I11" s="106"/>
-      <c r="J11" s="106"/>
-      <c r="K11" s="106"/>
-      <c r="L11" s="106"/>
-      <c r="M11" s="106"/>
-      <c r="N11" s="106"/>
-      <c r="O11" s="106"/>
-      <c r="P11" s="106"/>
-      <c r="Q11" s="106"/>
-      <c r="R11" s="106"/>
-      <c r="S11" s="107"/>
-    </row>
-    <row r="12" spans="2:19" ht="21" x14ac:dyDescent="0.35">
-      <c r="B12" s="112" t="s">
-        <v>69</v>
-      </c>
-      <c r="C12" s="106"/>
-      <c r="D12" s="106"/>
-      <c r="E12" s="106"/>
-      <c r="F12" s="106"/>
-      <c r="G12" s="106"/>
-      <c r="H12" s="106"/>
-      <c r="I12" s="106"/>
-      <c r="J12" s="106"/>
-      <c r="K12" s="106"/>
-      <c r="L12" s="106"/>
-      <c r="M12" s="106"/>
-      <c r="N12" s="106"/>
-      <c r="O12" s="106"/>
-      <c r="P12" s="106"/>
-      <c r="Q12" s="106"/>
-      <c r="R12" s="106"/>
-      <c r="S12" s="107"/>
-    </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B13" s="105" t="s">
-        <v>83</v>
-      </c>
-      <c r="C13" s="106"/>
-      <c r="D13" s="106"/>
-      <c r="E13" s="106"/>
-      <c r="F13" s="106"/>
-      <c r="G13" s="106"/>
-      <c r="H13" s="106"/>
-      <c r="I13" s="106"/>
-      <c r="J13" s="106"/>
-      <c r="K13" s="106"/>
-      <c r="L13" s="106"/>
-      <c r="M13" s="106"/>
-      <c r="N13" s="106"/>
-      <c r="O13" s="106"/>
-      <c r="P13" s="106"/>
-      <c r="Q13" s="106"/>
-      <c r="R13" s="106"/>
-      <c r="S13" s="107"/>
-    </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B14" s="105" t="s">
-        <v>75</v>
-      </c>
-      <c r="C14" s="106"/>
-      <c r="D14" s="106"/>
-      <c r="E14" s="106"/>
-      <c r="F14" s="106"/>
-      <c r="G14" s="106"/>
-      <c r="H14" s="106"/>
-      <c r="I14" s="106"/>
-      <c r="J14" s="106"/>
-      <c r="K14" s="106"/>
-      <c r="L14" s="106"/>
-      <c r="M14" s="106"/>
-      <c r="N14" s="106"/>
-      <c r="O14" s="106"/>
-      <c r="P14" s="106"/>
-      <c r="Q14" s="106"/>
-      <c r="R14" s="106"/>
-      <c r="S14" s="107"/>
-    </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B15" s="105" t="s">
-        <v>76</v>
-      </c>
-      <c r="C15" s="106"/>
-      <c r="D15" s="106"/>
-      <c r="E15" s="106"/>
-      <c r="F15" s="106"/>
-      <c r="G15" s="106"/>
-      <c r="H15" s="106"/>
-      <c r="I15" s="106"/>
-      <c r="J15" s="106"/>
-      <c r="K15" s="106"/>
-      <c r="L15" s="106"/>
-      <c r="M15" s="106"/>
-      <c r="N15" s="106"/>
-      <c r="O15" s="106"/>
-      <c r="P15" s="106"/>
-      <c r="Q15" s="106"/>
-      <c r="R15" s="106"/>
-      <c r="S15" s="107"/>
-    </row>
-    <row r="16" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="108" t="s">
-        <v>77</v>
-      </c>
-      <c r="C16" s="109"/>
-      <c r="D16" s="109"/>
-      <c r="E16" s="109"/>
-      <c r="F16" s="109"/>
-      <c r="G16" s="109"/>
-      <c r="H16" s="109"/>
-      <c r="I16" s="109"/>
-      <c r="J16" s="109"/>
-      <c r="K16" s="109"/>
-      <c r="L16" s="109"/>
-      <c r="M16" s="109"/>
-      <c r="N16" s="109"/>
-      <c r="O16" s="109"/>
-      <c r="P16" s="109"/>
-      <c r="Q16" s="109"/>
-      <c r="R16" s="109"/>
-      <c r="S16" s="110"/>
+      <c r="C13" s="122"/>
+      <c r="D13" s="122"/>
+      <c r="E13" s="122"/>
+      <c r="F13" s="122"/>
+      <c r="G13" s="122"/>
+      <c r="H13" s="122"/>
+      <c r="I13" s="122"/>
+      <c r="J13" s="122"/>
+      <c r="K13" s="122"/>
+      <c r="L13" s="122"/>
+      <c r="M13" s="122"/>
+      <c r="N13" s="122"/>
+      <c r="O13" s="122"/>
+      <c r="P13" s="122"/>
+      <c r="Q13" s="122"/>
+      <c r="R13" s="122"/>
+      <c r="S13" s="122"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B14" s="122" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" s="122"/>
+      <c r="D14" s="122"/>
+      <c r="E14" s="122"/>
+      <c r="F14" s="122"/>
+      <c r="G14" s="122"/>
+      <c r="H14" s="122"/>
+      <c r="I14" s="122"/>
+      <c r="J14" s="122"/>
+      <c r="K14" s="122"/>
+      <c r="L14" s="122"/>
+      <c r="M14" s="122"/>
+      <c r="N14" s="122"/>
+      <c r="O14" s="122"/>
+      <c r="P14" s="122"/>
+      <c r="Q14" s="122"/>
+      <c r="R14" s="122"/>
+      <c r="S14" s="122"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B15" s="122" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" s="122"/>
+      <c r="D15" s="122"/>
+      <c r="E15" s="122"/>
+      <c r="F15" s="122"/>
+      <c r="G15" s="122"/>
+      <c r="H15" s="122"/>
+      <c r="I15" s="122"/>
+      <c r="J15" s="122"/>
+      <c r="K15" s="122"/>
+      <c r="L15" s="122"/>
+      <c r="M15" s="122"/>
+      <c r="N15" s="122"/>
+      <c r="O15" s="122"/>
+      <c r="P15" s="122"/>
+      <c r="Q15" s="122"/>
+      <c r="R15" s="122"/>
+      <c r="S15" s="122"/>
     </row>
   </sheetData>
   <sheetProtection password="F66C" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
@@ -2163,6 +2363,8 @@
     <mergeCell ref="B4:S4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2170,8 +2372,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2203,19 +2405,19 @@
         <v>19</v>
       </c>
       <c r="D2" s="15"/>
-      <c r="E2" s="113" t="s">
+      <c r="E2" s="100" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="114" t="s">
+      <c r="F2" s="101" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="114" t="s">
+      <c r="G2" s="101" t="s">
         <v>41</v>
       </c>
-      <c r="H2" s="114" t="s">
+      <c r="H2" s="101" t="s">
         <v>30</v>
       </c>
-      <c r="I2" s="115" t="s">
+      <c r="I2" s="102" t="s">
         <v>42</v>
       </c>
       <c r="J2" s="16"/>
@@ -2318,7 +2520,7 @@
       <c r="C8" s="93"/>
       <c r="D8" s="15"/>
       <c r="E8" s="77" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F8" s="75"/>
       <c r="G8" s="75"/>
@@ -2348,7 +2550,7 @@
       <c r="C10" s="93"/>
       <c r="D10" s="15"/>
       <c r="E10" s="77" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F10" s="75"/>
       <c r="G10" s="75"/>
@@ -2363,7 +2565,7 @@
       <c r="C11" s="93"/>
       <c r="D11" s="15"/>
       <c r="E11" s="73" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F11" s="74"/>
       <c r="G11" s="74"/>
@@ -2676,7 +2878,7 @@
   <dimension ref="A1:N51"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2689,13 +2891,13 @@
   <sheetData>
     <row r="1" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="116" t="s">
+      <c r="B2" s="103" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="117" t="s">
+      <c r="C2" s="104" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="120" t="s">
+      <c r="E2" s="107" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2703,10 +2905,10 @@
       <c r="B3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="118">
+      <c r="C3" s="105">
         <v>4000</v>
       </c>
-      <c r="E3" s="121">
+      <c r="E3" s="108">
         <f>SUM(C3:C51)</f>
         <v>4000</v>
       </c>
@@ -2715,7 +2917,7 @@
       <c r="B4" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="118">
+      <c r="C4" s="105">
         <v>0</v>
       </c>
     </row>
@@ -2723,7 +2925,7 @@
       <c r="B5" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="118">
+      <c r="C5" s="105">
         <v>0</v>
       </c>
       <c r="E5" s="85" t="s">
@@ -2741,7 +2943,7 @@
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" s="9"/>
-      <c r="C6" s="118"/>
+      <c r="C6" s="105"/>
       <c r="E6" s="62" t="s">
         <v>47</v>
       </c>
@@ -2757,7 +2959,7 @@
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="9"/>
-      <c r="C7" s="118"/>
+      <c r="C7" s="105"/>
       <c r="E7" s="62" t="s">
         <v>48</v>
       </c>
@@ -2773,25 +2975,25 @@
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8" s="9"/>
-      <c r="C8" s="118"/>
-      <c r="E8" s="143" t="s">
+      <c r="C8" s="105"/>
+      <c r="E8" s="118" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="142"/>
-      <c r="G8" s="142"/>
-      <c r="H8" s="142"/>
-      <c r="I8" s="142"/>
-      <c r="J8" s="142"/>
-      <c r="K8" s="142"/>
-      <c r="L8" s="142"/>
-      <c r="M8" s="142"/>
-      <c r="N8" s="144"/>
+      <c r="F8" s="117"/>
+      <c r="G8" s="117"/>
+      <c r="H8" s="117"/>
+      <c r="I8" s="117"/>
+      <c r="J8" s="117"/>
+      <c r="K8" s="117"/>
+      <c r="L8" s="117"/>
+      <c r="M8" s="117"/>
+      <c r="N8" s="119"/>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="9"/>
-      <c r="C9" s="118"/>
+      <c r="C9" s="105"/>
       <c r="E9" s="62" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F9" s="63"/>
       <c r="G9" s="63"/>
@@ -2805,9 +3007,9 @@
     </row>
     <row r="10" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="9"/>
-      <c r="C10" s="118"/>
+      <c r="C10" s="105"/>
       <c r="E10" s="65" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F10" s="66"/>
       <c r="G10" s="66"/>
@@ -2821,167 +3023,167 @@
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="9"/>
-      <c r="C11" s="118"/>
+      <c r="C11" s="105"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="9"/>
-      <c r="C12" s="118"/>
+      <c r="C12" s="105"/>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="9"/>
-      <c r="C13" s="118"/>
+      <c r="C13" s="105"/>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="9"/>
-      <c r="C14" s="118"/>
+      <c r="C14" s="105"/>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="9"/>
-      <c r="C15" s="118"/>
+      <c r="C15" s="105"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="9"/>
-      <c r="C16" s="118"/>
+      <c r="C16" s="105"/>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="9"/>
-      <c r="C17" s="118"/>
+      <c r="C17" s="105"/>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="9"/>
-      <c r="C18" s="118"/>
+      <c r="C18" s="105"/>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="9"/>
-      <c r="C19" s="118"/>
+      <c r="C19" s="105"/>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="9"/>
-      <c r="C20" s="118"/>
+      <c r="C20" s="105"/>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="9"/>
-      <c r="C21" s="118"/>
+      <c r="C21" s="105"/>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" s="9"/>
-      <c r="C22" s="118"/>
+      <c r="C22" s="105"/>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="9"/>
-      <c r="C23" s="118"/>
+      <c r="C23" s="105"/>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="9"/>
-      <c r="C24" s="118"/>
+      <c r="C24" s="105"/>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" s="9"/>
-      <c r="C25" s="118"/>
+      <c r="C25" s="105"/>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" s="9"/>
-      <c r="C26" s="118"/>
+      <c r="C26" s="105"/>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B27" s="9"/>
-      <c r="C27" s="118"/>
+      <c r="C27" s="105"/>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B28" s="9"/>
-      <c r="C28" s="118"/>
+      <c r="C28" s="105"/>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B29" s="9"/>
-      <c r="C29" s="118"/>
+      <c r="C29" s="105"/>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B30" s="9"/>
-      <c r="C30" s="118"/>
+      <c r="C30" s="105"/>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B31" s="9"/>
-      <c r="C31" s="118"/>
+      <c r="C31" s="105"/>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B32" s="9"/>
-      <c r="C32" s="118"/>
+      <c r="C32" s="105"/>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" s="9"/>
-      <c r="C33" s="118"/>
+      <c r="C33" s="105"/>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" s="9"/>
-      <c r="C34" s="118"/>
+      <c r="C34" s="105"/>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" s="9"/>
-      <c r="C35" s="118"/>
+      <c r="C35" s="105"/>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B36" s="9"/>
-      <c r="C36" s="118"/>
+      <c r="C36" s="105"/>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B37" s="9"/>
-      <c r="C37" s="118"/>
+      <c r="C37" s="105"/>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B38" s="9"/>
-      <c r="C38" s="118"/>
+      <c r="C38" s="105"/>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B39" s="9"/>
-      <c r="C39" s="118"/>
+      <c r="C39" s="105"/>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B40" s="9"/>
-      <c r="C40" s="118"/>
+      <c r="C40" s="105"/>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B41" s="9"/>
-      <c r="C41" s="118"/>
+      <c r="C41" s="105"/>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B42" s="9"/>
-      <c r="C42" s="118"/>
+      <c r="C42" s="105"/>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B43" s="9"/>
-      <c r="C43" s="118"/>
+      <c r="C43" s="105"/>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B44" s="9"/>
-      <c r="C44" s="118"/>
+      <c r="C44" s="105"/>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B45" s="9"/>
-      <c r="C45" s="118"/>
+      <c r="C45" s="105"/>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B46" s="9"/>
-      <c r="C46" s="118"/>
+      <c r="C46" s="105"/>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B47" s="9"/>
-      <c r="C47" s="118"/>
+      <c r="C47" s="105"/>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B48" s="9"/>
-      <c r="C48" s="118"/>
+      <c r="C48" s="105"/>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B49" s="9"/>
-      <c r="C49" s="118"/>
+      <c r="C49" s="105"/>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B50" s="9"/>
-      <c r="C50" s="118"/>
+      <c r="C50" s="105"/>
     </row>
     <row r="51" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B51" s="10"/>
-      <c r="C51" s="119"/>
+      <c r="C51" s="106"/>
     </row>
   </sheetData>
   <sheetProtection password="F66C" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
@@ -2997,7 +3199,7 @@
   <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3012,10 +3214,10 @@
   <sheetData>
     <row r="1" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="122" t="s">
+      <c r="B2" s="109" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="123" t="s">
+      <c r="C2" s="110" t="s">
         <v>26</v>
       </c>
       <c r="E2" s="5" t="s">
@@ -3026,7 +3228,7 @@
       <c r="B3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="118">
+      <c r="C3" s="105">
         <v>1500</v>
       </c>
       <c r="E3" s="96">
@@ -3038,13 +3240,13 @@
       <c r="B4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="118">
+      <c r="C4" s="105">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="9"/>
-      <c r="C5" s="124"/>
+      <c r="C5" s="111"/>
       <c r="E5" s="85" t="s">
         <v>25</v>
       </c>
@@ -3059,7 +3261,7 @@
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B6" s="9"/>
-      <c r="C6" s="124"/>
+      <c r="C6" s="111"/>
       <c r="E6" s="62" t="s">
         <v>49</v>
       </c>
@@ -3074,7 +3276,7 @@
     </row>
     <row r="7" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="9"/>
-      <c r="C7" s="124"/>
+      <c r="C7" s="111"/>
       <c r="E7" s="65" t="s">
         <v>50</v>
       </c>
@@ -3089,179 +3291,179 @@
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B8" s="9"/>
-      <c r="C8" s="124"/>
+      <c r="C8" s="111"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" s="9"/>
-      <c r="C9" s="124"/>
+      <c r="C9" s="111"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" s="9"/>
-      <c r="C10" s="124"/>
+      <c r="C10" s="111"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" s="9"/>
-      <c r="C11" s="124"/>
+      <c r="C11" s="111"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" s="9"/>
-      <c r="C12" s="124"/>
+      <c r="C12" s="111"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" s="9"/>
-      <c r="C13" s="124"/>
+      <c r="C13" s="111"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" s="9"/>
-      <c r="C14" s="124"/>
+      <c r="C14" s="111"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" s="9"/>
-      <c r="C15" s="124"/>
+      <c r="C15" s="111"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16" s="9"/>
-      <c r="C16" s="124"/>
+      <c r="C16" s="111"/>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="9"/>
-      <c r="C17" s="124"/>
+      <c r="C17" s="111"/>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="9"/>
-      <c r="C18" s="124"/>
+      <c r="C18" s="111"/>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="9"/>
-      <c r="C19" s="124"/>
+      <c r="C19" s="111"/>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="9"/>
-      <c r="C20" s="124"/>
+      <c r="C20" s="111"/>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="9"/>
-      <c r="C21" s="124"/>
+      <c r="C21" s="111"/>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" s="9"/>
-      <c r="C22" s="124"/>
+      <c r="C22" s="111"/>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="9"/>
-      <c r="C23" s="124"/>
+      <c r="C23" s="111"/>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="9"/>
-      <c r="C24" s="124"/>
+      <c r="C24" s="111"/>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" s="9"/>
-      <c r="C25" s="124"/>
+      <c r="C25" s="111"/>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" s="9"/>
-      <c r="C26" s="124"/>
+      <c r="C26" s="111"/>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B27" s="9"/>
-      <c r="C27" s="124"/>
+      <c r="C27" s="111"/>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B28" s="9"/>
-      <c r="C28" s="124"/>
+      <c r="C28" s="111"/>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B29" s="9"/>
-      <c r="C29" s="124"/>
+      <c r="C29" s="111"/>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B30" s="9"/>
-      <c r="C30" s="124"/>
+      <c r="C30" s="111"/>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B31" s="9"/>
-      <c r="C31" s="124"/>
+      <c r="C31" s="111"/>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B32" s="9"/>
-      <c r="C32" s="124"/>
+      <c r="C32" s="111"/>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" s="9"/>
-      <c r="C33" s="124"/>
+      <c r="C33" s="111"/>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" s="9"/>
-      <c r="C34" s="124"/>
+      <c r="C34" s="111"/>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" s="9"/>
-      <c r="C35" s="124"/>
+      <c r="C35" s="111"/>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B36" s="9"/>
-      <c r="C36" s="124"/>
+      <c r="C36" s="111"/>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B37" s="9"/>
-      <c r="C37" s="124"/>
+      <c r="C37" s="111"/>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B38" s="9"/>
-      <c r="C38" s="124"/>
+      <c r="C38" s="111"/>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B39" s="9"/>
-      <c r="C39" s="124"/>
+      <c r="C39" s="111"/>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B40" s="9"/>
-      <c r="C40" s="124"/>
+      <c r="C40" s="111"/>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B41" s="9"/>
-      <c r="C41" s="124"/>
+      <c r="C41" s="111"/>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B42" s="9"/>
-      <c r="C42" s="124"/>
+      <c r="C42" s="111"/>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B43" s="9"/>
-      <c r="C43" s="124"/>
+      <c r="C43" s="111"/>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B44" s="9"/>
-      <c r="C44" s="124"/>
+      <c r="C44" s="111"/>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B45" s="9"/>
-      <c r="C45" s="124"/>
+      <c r="C45" s="111"/>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B46" s="9"/>
-      <c r="C46" s="124"/>
+      <c r="C46" s="111"/>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B47" s="9"/>
-      <c r="C47" s="124"/>
+      <c r="C47" s="111"/>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B48" s="9"/>
-      <c r="C48" s="124"/>
+      <c r="C48" s="111"/>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B49" s="9"/>
-      <c r="C49" s="124"/>
+      <c r="C49" s="111"/>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B50" s="9"/>
-      <c r="C50" s="124"/>
+      <c r="C50" s="111"/>
     </row>
     <row r="51" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B51" s="10"/>
-      <c r="C51" s="125"/>
+      <c r="C51" s="112"/>
     </row>
   </sheetData>
   <sheetProtection password="F66C" sheet="1" objects="1" scenarios="1"/>
@@ -3274,7 +3476,7 @@
   <dimension ref="A1:K51"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3290,13 +3492,13 @@
       <c r="C1" s="15"/>
     </row>
     <row r="2" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="122" t="s">
+      <c r="B2" s="109" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="123" t="s">
+      <c r="C2" s="110" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="126"/>
+      <c r="D2" s="113"/>
       <c r="E2" s="61" t="s">
         <v>32</v>
       </c>
@@ -3713,7 +3915,7 @@
         <f>'1.Custo do Produto'!$E$3*(1+'5.Resultado'!$E$11)</f>
         <v>12.35</v>
       </c>
-      <c r="C8" s="127">
+      <c r="C8" s="114">
         <v>50</v>
       </c>
       <c r="D8" s="6">
@@ -3739,7 +3941,7 @@
       </c>
     </row>
     <row r="11" spans="2:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E11" s="128">
+      <c r="E11" s="115">
         <v>0.9</v>
       </c>
       <c r="F11" s="88">
@@ -3748,14 +3950,14 @@
       </c>
     </row>
     <row r="12" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="129" t="s">
-        <v>84</v>
-      </c>
-      <c r="C12" s="129"/>
+      <c r="B12" s="116" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" s="116"/>
     </row>
     <row r="13" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="90" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -3826,17 +4028,17 @@
       <c r="F20" s="41"/>
     </row>
     <row r="21" spans="2:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="136" t="s">
+      <c r="B21" s="131" t="s">
         <v>59</v>
       </c>
-      <c r="C21" s="137"/>
-      <c r="D21" s="137"/>
-      <c r="E21" s="137"/>
-      <c r="F21" s="138"/>
+      <c r="C21" s="132"/>
+      <c r="D21" s="132"/>
+      <c r="E21" s="132"/>
+      <c r="F21" s="133"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="42" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C22" s="40"/>
       <c r="D22" s="40"/>
@@ -3880,17 +4082,17 @@
       <c r="F26" s="35"/>
     </row>
     <row r="27" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="139" t="s">
-        <v>79</v>
-      </c>
-      <c r="C27" s="140"/>
-      <c r="D27" s="140"/>
-      <c r="E27" s="140"/>
-      <c r="F27" s="141"/>
+      <c r="B27" s="134" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" s="135"/>
+      <c r="D27" s="135"/>
+      <c r="E27" s="135"/>
+      <c r="F27" s="136"/>
     </row>
     <row r="28" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="36" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C28" s="37"/>
       <c r="D28" s="37"/>
